--- a/biology/Botanique/Polystichum_aculeatum/Polystichum_aculeatum.xlsx
+++ b/biology/Botanique/Polystichum_aculeatum/Polystichum_aculeatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystic à aiguillons
 Polystichum aculeatum, appelé Polystic à aiguillons ou Polystic à frondes munies d'aiguillons, est une espèce de fougères de la famille des Dryopteridaceae, originaire d'Europe.
-En France, cette espèce est classée « espèce protégée » en Bretagne[1], en Île-de-France[2] dans le Centre-Val de Loire[3] et en Aquitaine[4].
+En France, cette espèce est classée « espèce protégée » en Bretagne, en Île-de-France dans le Centre-Val de Loire et en Aquitaine.
 Cette plante est parfois cultivée comme plante ornementale.
 </t>
         </is>
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette fougère vivace à rhizome court possède des frondes bipennées. Chaque penne est falsiforme (en forme de faux) et porte des pinnules crénelés, à la bordure garnie de soies raides. Les pinnules présentent latéralement une petite extension ("auricule"). Le pétiole de la fronde est couvert d'écailles.
-Appareil reproducteur
-Les sores sont arrondis, situés de part et d'autre de la nervure des pinnules. Ils sont temporairement protégés par une indusie circulaire, fixée au pinnule par son centre.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fougère vivace à rhizome court possède des frondes bipennées. Chaque penne est falsiforme (en forme de faux) et porte des pinnules crénelés, à la bordure garnie de soies raides. Les pinnules présentent latéralement une petite extension ("auricule"). Le pétiole de la fronde est couvert d'écailles.
 </t>
         </is>
       </c>
@@ -545,10 +560,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sores sont arrondis, situés de part et d'autre de la nervure des pinnules. Ils sont temporairement protégés par une indusie circulaire, fixée au pinnule par son centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polystichum_aculeatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polystichum_aculeatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans des zones fraîches telles que pentes ombragées, ou ravins et fossés humides.
 </t>
